--- a/ModelRocketAvionicsPCB/TM4C Pin Diagram.xlsx
+++ b/ModelRocketAvionicsPCB/TM4C Pin Diagram.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{F3F1C34A-C8B9-4366-BF1C-24E424E9CECA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{61CAABDE-F8B5-491D-8CB1-BE16BB3A5455}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{F3F1C34A-C8B9-4366-BF1C-24E424E9CECA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{3DFCEFCE-5CFD-401D-84C3-3E9B781F8DBE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="139">
   <si>
     <t>Pin Number</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Internal Positive Power Supply</t>
   </si>
   <si>
-    <t>PF0/SW_USR2</t>
-  </si>
-  <si>
     <t>User Push Button 2 and MCU Wake</t>
   </si>
   <si>
@@ -431,6 +428,15 @@
   </si>
   <si>
     <t>Other Functions/Peripherals</t>
+  </si>
+  <si>
+    <t>User Push Button 1</t>
+  </si>
+  <si>
+    <t>PF0/SW2</t>
+  </si>
+  <si>
+    <t>PF4/SW1</t>
   </si>
 </sst>
 </file>
@@ -1046,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1068,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>2</v>
@@ -1085,7 +1091,7 @@
         <v>62</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>3</v>
@@ -1102,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -1164,6 +1170,12 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1318,13 +1330,13 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
         <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1336,13 +1348,13 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1360,7 +1372,7 @@
         <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1378,7 +1390,7 @@
         <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1396,7 +1408,7 @@
         <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1414,7 +1426,7 @@
         <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1509,10 +1521,10 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" t="s">
         <v>79</v>
-      </c>
-      <c r="E30" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1527,10 +1539,10 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1572,7 +1584,7 @@
         <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1584,13 +1596,13 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
         <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1608,7 +1620,7 @@
         <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1623,10 +1635,10 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" t="s">
         <v>85</v>
-      </c>
-      <c r="E37" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1644,7 +1656,7 @@
         <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1659,10 +1671,10 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" t="s">
         <v>87</v>
-      </c>
-      <c r="E39" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1677,10 +1689,10 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" t="s">
         <v>89</v>
-      </c>
-      <c r="E40" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1717,7 +1729,7 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1735,7 +1747,7 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1769,10 +1781,10 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1787,10 +1799,10 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1805,10 +1817,10 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" t="s">
         <v>94</v>
-      </c>
-      <c r="E47" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1823,10 +1835,10 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" t="s">
         <v>96</v>
-      </c>
-      <c r="E48" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1841,10 +1853,10 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1859,10 +1871,10 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,10 +1889,10 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1895,10 +1907,10 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1913,10 +1925,10 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1931,10 +1943,10 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2042,10 +2054,10 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2060,10 +2072,10 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2078,13 +2090,13 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
+        <v>127</v>
+      </c>
+      <c r="F63" t="s">
         <v>128</v>
-      </c>
-      <c r="F63" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2099,13 +2111,13 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2120,13 +2132,13 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2141,13 +2153,13 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/ModelRocketAvionicsPCB/TM4C Pin Diagram.xlsx
+++ b/ModelRocketAvionicsPCB/TM4C Pin Diagram.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{F3F1C34A-C8B9-4366-BF1C-24E424E9CECA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{3DFCEFCE-5CFD-401D-84C3-3E9B781F8DBE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879413FF-903A-4178-90AE-B1CC9D8E1639}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="142">
   <si>
     <t>Pin Number</t>
   </si>
@@ -437,13 +437,22 @@
   </si>
   <si>
     <t>PF4/SW1</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Stage Header</t>
+  </si>
+  <si>
+    <t>Total Header Pins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +497,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -512,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -538,6 +555,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -547,13 +573,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -563,7 +591,257 @@
     <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1050,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA66"/>
+  <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,6 +1342,7 @@
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="54.85546875" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1093,6 +1372,9 @@
       <c r="F2" s="5" t="s">
         <v>135</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AA2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1107,6 +1389,9 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
       <c r="AA3" s="3" t="s">
         <v>82</v>
       </c>
@@ -1128,6 +1413,9 @@
       <c r="E4" t="s">
         <v>63</v>
       </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1146,6 +1434,9 @@
       <c r="E5" t="s">
         <v>68</v>
       </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1158,6 +1449,9 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1176,6 +1470,12 @@
       <c r="E7" t="s">
         <v>136</v>
       </c>
+      <c r="F7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1188,6 +1488,9 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1200,6 +1503,9 @@
       <c r="C9" t="s">
         <v>2</v>
       </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1212,6 +1518,9 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1224,6 +1533,9 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1236,6 +1548,9 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1254,6 +1569,9 @@
       <c r="E13" t="s">
         <v>76</v>
       </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1272,6 +1590,9 @@
       <c r="E14" t="s">
         <v>77</v>
       </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1284,6 +1605,9 @@
       <c r="C15" t="s">
         <v>2</v>
       </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1296,8 +1620,11 @@
       <c r="C16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1308,8 +1635,11 @@
       <c r="C17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1320,8 +1650,11 @@
       <c r="C18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1338,8 +1671,11 @@
       <c r="E19" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1356,8 +1692,11 @@
       <c r="E20" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1374,8 +1713,11 @@
       <c r="E21" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1392,8 +1734,11 @@
       <c r="E22" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1410,8 +1755,11 @@
       <c r="E23" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1428,8 +1776,11 @@
       <c r="E24" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1440,8 +1791,11 @@
       <c r="C25" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1452,8 +1806,11 @@
       <c r="C26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1470,8 +1827,11 @@
       <c r="E27" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1489,8 +1849,11 @@
         <f>E13</f>
         <v>Main Positive Power Supply</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1508,8 +1871,11 @@
         <f>E14</f>
         <v>Main Negative Power Supply</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1526,8 +1892,11 @@
       <c r="E30" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1544,8 +1913,11 @@
       <c r="E31" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1556,8 +1928,11 @@
       <c r="C32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1568,8 +1943,11 @@
       <c r="C33" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1586,8 +1964,11 @@
       <c r="E34" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1604,8 +1985,11 @@
       <c r="E35" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1622,8 +2006,11 @@
       <c r="E36" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1640,8 +2027,11 @@
       <c r="E37" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1658,8 +2048,11 @@
       <c r="E38" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1676,8 +2069,11 @@
       <c r="E39" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1694,8 +2090,11 @@
       <c r="E40" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1713,8 +2112,11 @@
         <f>E29</f>
         <v>Main Negative Power Supply</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1731,8 +2133,11 @@
       <c r="E42" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1749,8 +2154,11 @@
       <c r="E43" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1768,8 +2176,11 @@
         <f>E28</f>
         <v>Main Positive Power Supply</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1786,8 +2197,11 @@
       <c r="E45" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1804,8 +2218,11 @@
       <c r="E46" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1822,8 +2239,11 @@
       <c r="E47" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1840,8 +2260,11 @@
       <c r="E48" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1858,8 +2281,11 @@
       <c r="E49" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1876,8 +2302,11 @@
       <c r="E50" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1894,8 +2323,11 @@
       <c r="E51" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1912,8 +2344,11 @@
       <c r="E52" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1930,8 +2365,11 @@
       <c r="E53" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1948,8 +2386,11 @@
       <c r="E54" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1960,8 +2401,11 @@
       <c r="C55" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1979,8 +2423,11 @@
         <f>E44</f>
         <v>Main Positive Power Supply</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1998,8 +2445,11 @@
         <f>E41</f>
         <v>Main Negative Power Supply</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2017,8 +2467,11 @@
         <f>E27</f>
         <v>Internal Positive Power Supply</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2029,8 +2482,11 @@
       <c r="C59" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2041,8 +2497,11 @@
       <c r="C60" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2059,8 +2518,11 @@
       <c r="E61" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>A61+1</f>
         <v>60</v>
@@ -2077,8 +2539,11 @@
       <c r="E62" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>A62+1</f>
         <v>61</v>
@@ -2098,8 +2563,11 @@
       <c r="F63" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>A63+1</f>
         <v>62</v>
@@ -2119,8 +2587,11 @@
       <c r="F64" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>A64+1</f>
         <v>63</v>
@@ -2140,30 +2611,148 @@
       <c r="F65" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="G65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
         <f>A65+1</f>
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C66" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C66" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="7" t="s">
         <v>131</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F67" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G67">
+        <f>COUNTIF(G3:G66, "Yes")</f>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C200">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+      <formula>"RSV"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C14">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+      <formula>"RSV"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C17">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+      <formula>"RSV"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C20">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+      <formula>"RSV"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C31">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+      <formula>"RSV"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+      <formula>"RSV"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+      <formula>"RSV"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+      <formula>"RSV"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+      <formula>"RSV"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C26">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+      <formula>"RSV"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+      <formula>"RSV"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>"RSV"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C66">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>"RSV"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+      <formula>"RSV"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C12">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>"RSV"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C18">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"RSV"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C24">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>"RSV"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>"RSV"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C62">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>"RSV"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G66">
     <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -2171,103 +2760,103 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
+  <conditionalFormatting sqref="G3">
     <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C14">
+  <conditionalFormatting sqref="G4:G14">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C17">
+  <conditionalFormatting sqref="G16:G17">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:C20">
+  <conditionalFormatting sqref="G19:G20">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C31">
+  <conditionalFormatting sqref="G27:G31">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="G34">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
+  <conditionalFormatting sqref="G35">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="G32">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
+  <conditionalFormatting sqref="G33">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C26">
+  <conditionalFormatting sqref="G21:G26">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="G18">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
+  <conditionalFormatting sqref="G15">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C66">
+  <conditionalFormatting sqref="G36:G66">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
+  <conditionalFormatting sqref="G3">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C12">
+  <conditionalFormatting sqref="G6:G12">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C18">
+  <conditionalFormatting sqref="G15:G18">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C24">
+  <conditionalFormatting sqref="G21:G24">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
+  <conditionalFormatting sqref="G55">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C62">
+  <conditionalFormatting sqref="G59:G62">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C66" xr:uid="{BD470744-6A26-4C83-9397-C0B10B90883B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C66 G3:G66" xr:uid="{BD470744-6A26-4C83-9397-C0B10B90883B}">
       <formula1>$AA$1:$AA$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/ModelRocketAvionicsPCB/TM4C Pin Diagram.xlsx
+++ b/ModelRocketAvionicsPCB/TM4C Pin Diagram.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879413FF-903A-4178-90AE-B1CC9D8E1639}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382B9122-6D79-434B-A3F0-B437807714E7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="153">
   <si>
     <t>Pin Number</t>
   </si>
@@ -446,6 +446,39 @@
   </si>
   <si>
     <t>Total Header Pins</t>
+  </si>
+  <si>
+    <t>BAR_INT1</t>
+  </si>
+  <si>
+    <t>BAR_INT2</t>
+  </si>
+  <si>
+    <t>Interrupt Pin for Barometer Sensor</t>
+  </si>
+  <si>
+    <t>ACC_INT1</t>
+  </si>
+  <si>
+    <t>ACC_INT2</t>
+  </si>
+  <si>
+    <t>GYR_DEN</t>
+  </si>
+  <si>
+    <t>Accelrometer Sensor Interrupt Pin</t>
+  </si>
+  <si>
+    <t>Gyroscope Sensor Interrupt Pin</t>
+  </si>
+  <si>
+    <t>Gyroscope Data Enable Pin</t>
+  </si>
+  <si>
+    <t>GRY_INT2/DRDY</t>
+  </si>
+  <si>
+    <t>GYR_INT1</t>
   </si>
 </sst>
 </file>
@@ -573,7 +606,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4"/>
@@ -582,6 +615,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -591,214 +625,174 @@
     <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1330,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,6 +1383,12 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
@@ -1449,6 +1449,12 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
+        <v>148</v>
+      </c>
       <c r="G6" t="s">
         <v>2</v>
       </c>
@@ -1465,10 +1471,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F7" t="s">
         <v>139</v>
@@ -1488,8 +1494,20 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
+      <c r="D8" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" t="s">
+        <v>149</v>
+      </c>
       <c r="G8" t="s">
         <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -1502,6 +1520,12 @@
       </c>
       <c r="C9" t="s">
         <v>2</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="G9" t="s">
         <v>2</v>
@@ -2482,6 +2506,12 @@
       <c r="C59" t="s">
         <v>2</v>
       </c>
+      <c r="D59" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" t="s">
+        <v>144</v>
+      </c>
       <c r="G59" t="s">
         <v>2</v>
       </c>
@@ -2496,6 +2526,12 @@
       </c>
       <c r="C60" t="s">
         <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" t="s">
+        <v>144</v>
       </c>
       <c r="G60" t="s">
         <v>2</v>
@@ -2650,105 +2686,105 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C200">
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="42" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C20">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C31">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C26">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C66">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C12">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C18">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C24">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C62">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ModelRocketAvionicsPCB/TM4C Pin Diagram.xlsx
+++ b/ModelRocketAvionicsPCB/TM4C Pin Diagram.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382B9122-6D79-434B-A3F0-B437807714E7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A032D5-4C61-42CF-909C-95D6C03CAC48}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="160">
   <si>
     <t>Pin Number</t>
   </si>
@@ -442,9 +442,6 @@
     <t>`</t>
   </si>
   <si>
-    <t>Stage Header</t>
-  </si>
-  <si>
     <t>Total Header Pins</t>
   </si>
   <si>
@@ -479,13 +476,37 @@
   </si>
   <si>
     <t>GYR_INT1</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>+VBAT</t>
+  </si>
+  <si>
+    <t>I2C_SCL</t>
+  </si>
+  <si>
+    <t>I2C_SDA</t>
+  </si>
+  <si>
+    <t>3V3</t>
+  </si>
+  <si>
+    <t>Reset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,6 +555,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -606,7 +634,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4"/>
@@ -616,6 +644,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -625,197 +655,7 @@
     <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1322,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA67"/>
+  <dimension ref="A1:Z105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D86" sqref="D85:D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,18 +1176,17 @@
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="54.85546875" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1366,14 +1205,11 @@
       <c r="F2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1383,20 +1219,17 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>145</v>
+      <c r="D3" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="E3" t="s">
         <v>148</v>
       </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -1413,11 +1246,8 @@
       <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5:A61" si="0">A4+1</f>
         <v>3</v>
@@ -1434,11 +1264,8 @@
       <c r="E5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1450,16 +1277,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
         <v>148</v>
       </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1470,20 +1294,17 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>149</v>
       </c>
       <c r="F7" t="s">
         <v>139</v>
       </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1494,23 +1315,20 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>151</v>
+      <c r="D8" t="s">
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
+        <v>147</v>
+      </c>
+      <c r="L8" t="s">
+        <v>138</v>
       </c>
       <c r="M8" t="s">
-        <v>138</v>
-      </c>
-      <c r="N8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1521,17 +1339,14 @@
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1542,11 +1357,8 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1557,11 +1369,8 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="G11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1572,11 +1381,8 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="G12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1593,11 +1399,8 @@
       <c r="E13" t="s">
         <v>76</v>
       </c>
-      <c r="G13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1614,11 +1417,14 @@
       <c r="E14" t="s">
         <v>77</v>
       </c>
-      <c r="G14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1629,11 +1435,14 @@
       <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="G15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1644,11 +1453,14 @@
       <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="G16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1659,11 +1471,14 @@
       <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="G17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1674,11 +1489,14 @@
       <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="G18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1695,11 +1513,8 @@
       <c r="E19" t="s">
         <v>112</v>
       </c>
-      <c r="G19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1716,11 +1531,8 @@
       <c r="E20" t="s">
         <v>113</v>
       </c>
-      <c r="G20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1737,11 +1549,8 @@
       <c r="E21" t="s">
         <v>119</v>
       </c>
-      <c r="G21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1758,11 +1567,8 @@
       <c r="E22" t="s">
         <v>120</v>
       </c>
-      <c r="G22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1779,11 +1585,8 @@
       <c r="E23" t="s">
         <v>121</v>
       </c>
-      <c r="G23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1800,11 +1603,8 @@
       <c r="E24" t="s">
         <v>122</v>
       </c>
-      <c r="G24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1815,11 +1615,8 @@
       <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="G25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1830,11 +1627,8 @@
       <c r="C26" t="s">
         <v>2</v>
       </c>
-      <c r="G26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1851,11 +1645,8 @@
       <c r="E27" t="s">
         <v>78</v>
       </c>
-      <c r="G27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1873,11 +1664,8 @@
         <f>E13</f>
         <v>Main Positive Power Supply</v>
       </c>
-      <c r="G28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1895,11 +1683,8 @@
         <f>E14</f>
         <v>Main Negative Power Supply</v>
       </c>
-      <c r="G29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1916,11 +1701,8 @@
       <c r="E30" t="s">
         <v>79</v>
       </c>
-      <c r="G30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1937,11 +1719,8 @@
       <c r="E31" t="s">
         <v>118</v>
       </c>
-      <c r="G31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1952,11 +1731,14 @@
       <c r="C32" t="s">
         <v>2</v>
       </c>
-      <c r="G32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1967,11 +1749,14 @@
       <c r="C33" t="s">
         <v>2</v>
       </c>
-      <c r="G33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1988,11 +1773,8 @@
       <c r="E34" t="s">
         <v>81</v>
       </c>
-      <c r="G34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2009,11 +1791,8 @@
       <c r="E35" t="s">
         <v>83</v>
       </c>
-      <c r="G35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2030,11 +1809,8 @@
       <c r="E36" t="s">
         <v>85</v>
       </c>
-      <c r="G36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2051,11 +1827,8 @@
       <c r="E37" t="s">
         <v>85</v>
       </c>
-      <c r="G37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2072,11 +1845,8 @@
       <c r="E38" t="s">
         <v>85</v>
       </c>
-      <c r="G38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2093,11 +1863,8 @@
       <c r="E39" t="s">
         <v>87</v>
       </c>
-      <c r="G39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2114,11 +1881,8 @@
       <c r="E40" t="s">
         <v>89</v>
       </c>
-      <c r="G40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2136,11 +1900,8 @@
         <f>E29</f>
         <v>Main Negative Power Supply</v>
       </c>
-      <c r="G41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2157,11 +1918,8 @@
       <c r="E42" t="s">
         <v>90</v>
       </c>
-      <c r="G42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2178,11 +1936,8 @@
       <c r="E43" t="s">
         <v>90</v>
       </c>
-      <c r="G43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2200,11 +1955,8 @@
         <f>E28</f>
         <v>Main Positive Power Supply</v>
       </c>
-      <c r="G44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2221,11 +1973,8 @@
       <c r="E45" t="s">
         <v>91</v>
       </c>
-      <c r="G45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2242,11 +1991,8 @@
       <c r="E46" t="s">
         <v>92</v>
       </c>
-      <c r="G46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2263,11 +2009,8 @@
       <c r="E47" t="s">
         <v>94</v>
       </c>
-      <c r="G47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2284,11 +2027,8 @@
       <c r="E48" t="s">
         <v>96</v>
       </c>
-      <c r="G48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2305,11 +2045,8 @@
       <c r="E49" t="s">
         <v>99</v>
       </c>
-      <c r="G49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2326,11 +2063,8 @@
       <c r="E50" t="s">
         <v>100</v>
       </c>
-      <c r="G50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2347,11 +2081,8 @@
       <c r="E51" t="s">
         <v>105</v>
       </c>
-      <c r="G51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2368,11 +2099,8 @@
       <c r="E52" t="s">
         <v>106</v>
       </c>
-      <c r="G52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2389,11 +2117,8 @@
       <c r="E53" t="s">
         <v>107</v>
       </c>
-      <c r="G53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2410,11 +2135,8 @@
       <c r="E54" t="s">
         <v>108</v>
       </c>
-      <c r="G54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2425,11 +2147,8 @@
       <c r="C55" t="s">
         <v>2</v>
       </c>
-      <c r="G55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2447,11 +2166,8 @@
         <f>E44</f>
         <v>Main Positive Power Supply</v>
       </c>
-      <c r="G56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2469,11 +2185,8 @@
         <f>E41</f>
         <v>Main Negative Power Supply</v>
       </c>
-      <c r="G57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2491,11 +2204,8 @@
         <f>E27</f>
         <v>Internal Positive Power Supply</v>
       </c>
-      <c r="G58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2506,17 +2216,10 @@
       <c r="C59" t="s">
         <v>2</v>
       </c>
-      <c r="D59" t="s">
-        <v>142</v>
-      </c>
-      <c r="E59" t="s">
-        <v>144</v>
-      </c>
-      <c r="G59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2527,17 +2230,10 @@
       <c r="C60" t="s">
         <v>2</v>
       </c>
-      <c r="D60" t="s">
-        <v>143</v>
-      </c>
-      <c r="E60" t="s">
-        <v>144</v>
-      </c>
-      <c r="G60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2554,11 +2250,8 @@
       <c r="E61" t="s">
         <v>125</v>
       </c>
-      <c r="G61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>A61+1</f>
         <v>60</v>
@@ -2575,11 +2268,8 @@
       <c r="E62" t="s">
         <v>126</v>
       </c>
-      <c r="G62" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>A62+1</f>
         <v>61</v>
@@ -2599,11 +2289,8 @@
       <c r="F63" t="s">
         <v>128</v>
       </c>
-      <c r="G63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>A63+1</f>
         <v>62</v>
@@ -2623,11 +2310,8 @@
       <c r="F64" t="s">
         <v>129</v>
       </c>
-      <c r="G64" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>A64+1</f>
         <v>63</v>
@@ -2647,11 +2331,8 @@
       <c r="F65" t="s">
         <v>130</v>
       </c>
-      <c r="G65" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <f>A65+1</f>
         <v>64</v>
@@ -2671,229 +2352,436 @@
       <c r="F66" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G66" s="7" t="s">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F67" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G67">
-        <f>COUNTIF(G3:G66, "Yes")</f>
-        <v>36</v>
+      <c r="B73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>53</v>
+      </c>
+      <c r="C76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <v>33</v>
+      </c>
+      <c r="C78">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <v>57</v>
+      </c>
+      <c r="C79">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>9</v>
+      </c>
+      <c r="B80">
+        <v>58</v>
+      </c>
+      <c r="C80">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>10</v>
+      </c>
+      <c r="B81">
+        <v>59</v>
+      </c>
+      <c r="C81">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>11</v>
+      </c>
+      <c r="B82">
+        <v>60</v>
+      </c>
+      <c r="C82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>12</v>
+      </c>
+      <c r="B83">
+        <v>61</v>
+      </c>
+      <c r="C83">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>13</v>
+      </c>
+      <c r="B84">
+        <v>62</v>
+      </c>
+      <c r="C84">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>14</v>
+      </c>
+      <c r="B85" s="9">
+        <v>63</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>15</v>
+      </c>
+      <c r="B86" s="9">
+        <v>64</v>
+      </c>
+      <c r="C86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>16</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="6">
+        <v>33</v>
+      </c>
+      <c r="C90">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C93">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="6">
+        <v>53</v>
+      </c>
+      <c r="C94">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>57</v>
+      </c>
+      <c r="C95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>58</v>
+      </c>
+      <c r="C96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>59</v>
+      </c>
+      <c r="C97">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>60</v>
+      </c>
+      <c r="C98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>61</v>
+      </c>
+      <c r="C99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>62</v>
+      </c>
+      <c r="C100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>63</v>
+      </c>
+      <c r="C101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>64</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:C200">
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
+  <conditionalFormatting sqref="C3:C69 E70:E71 C74:C84 C87:C200 B72:B73">
+    <cfRule type="cellIs" dxfId="22" priority="47" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="48" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="46" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="45" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17">
-    <cfRule type="cellIs" dxfId="37" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="44" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C20">
-    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="43" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C31">
-    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="42" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="41" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="40" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="39" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="38" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C26">
-    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="37" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="36" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="35" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C66">
-    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="34" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="33" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C12">
-    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="32" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C18">
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C24">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="30" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="29" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C62">
-    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="28" operator="equal">
       <formula>"RSV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G66">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+  <conditionalFormatting sqref="C85:C86">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>"RSV"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G14">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>"RSV"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G17">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>"RSV"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G20">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>"RSV"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G31">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>"RSV"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>"RSV"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>"RSV"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>"RSV"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"RSV"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G26">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>"RSV"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"RSV"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"RSV"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36:G66">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"RSV"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"RSV"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G12">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"RSV"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G18">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"RSV"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G24">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"RSV"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"RSV"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G59:G62">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"RSV"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C66 G3:G66" xr:uid="{BD470744-6A26-4C83-9397-C0B10B90883B}">
-      <formula1>$AA$1:$AA$3</formula1>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C66" xr:uid="{BD470744-6A26-4C83-9397-C0B10B90883B}">
+      <formula1>$Z$1:$Z$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
